--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1685706.164351118</v>
+        <v>-1688371.574900134</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.049444517120401</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,61 +671,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.68669557114269</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,43 +838,43 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24.5704967621155</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="5">
@@ -905,52 +905,52 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>30.33058396382594</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>19.56274131285412</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,49 +1075,49 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K7" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="V7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.695996356597869</v>
       </c>
       <c r="C8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>30.33058396382595</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="V9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="X9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.256111626157765</v>
+      </c>
+      <c r="S10" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="U10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>356.8597880158199</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8845819944762</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.082705318338</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>296.2563973803192</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.78309830338688</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.8560859017321</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.6226586226522</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0080503320927</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>90.42872644673133</v>
       </c>
       <c r="I12" t="n">
-        <v>11.65697133930959</v>
+        <v>11.65697133930962</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.8389220492003</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0980181947725</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.52397011385794</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.17897396269611</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.0274475752769</v>
       </c>
       <c r="T13" t="n">
         <v>219.8574826379858</v>
       </c>
       <c r="U13" t="n">
-        <v>86.27543079119027</v>
+        <v>286.2157769293808</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9673268504844</v>
       </c>
       <c r="H14" t="n">
-        <v>295.0747776464139</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>43.33496992146243</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>110.2268990655191</v>
       </c>
       <c r="T14" t="n">
-        <v>204.1175893796232</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9988200546644</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>113.0051721395706</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>110.0939440938146</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.046263386139</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.9368795899061</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.85188956723013</v>
       </c>
       <c r="S16" t="n">
         <v>190.1255024102732</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.6363484556427</v>
       </c>
       <c r="U16" t="n">
-        <v>237.9629136043469</v>
+        <v>286.2129539398189</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>211.5468853154667</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1850,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E17" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F17" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G17" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H17" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T17" t="n">
-        <v>156.2172691342561</v>
+        <v>156.2172691342562</v>
       </c>
       <c r="U17" t="n">
-        <v>203.0984998092981</v>
+        <v>203.0984998092974</v>
       </c>
       <c r="V17" t="n">
-        <v>279.8519382247678</v>
+        <v>279.8519382247679</v>
       </c>
       <c r="W17" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X17" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.3376184106865</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C19" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D19" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E19" t="n">
-        <v>98.53364240120209</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F19" t="n">
-        <v>97.52072777756416</v>
+        <v>97.5207277775642</v>
       </c>
       <c r="G19" t="n">
-        <v>118.1459431407719</v>
+        <v>118.1459431407706</v>
       </c>
       <c r="H19" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453901</v>
       </c>
       <c r="I19" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95156932186305</v>
+        <v>41.9515693218631</v>
       </c>
       <c r="S19" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T19" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U19" t="n">
-        <v>238.3126336944521</v>
+        <v>238.3126336944518</v>
       </c>
       <c r="V19" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W19" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X19" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="20">
@@ -2087,16 +2087,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E20" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F20" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G20" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H20" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T20" t="n">
-        <v>156.2172691342561</v>
+        <v>156.2172691342562</v>
       </c>
       <c r="U20" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V20" t="n">
-        <v>279.8519382247678</v>
+        <v>279.8519382247679</v>
       </c>
       <c r="W20" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X20" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.3376184106865</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C22" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D22" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E22" t="n">
-        <v>98.53364240120285</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F22" t="n">
-        <v>97.52072777756416</v>
+        <v>97.52072777756361</v>
       </c>
       <c r="G22" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H22" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453901</v>
       </c>
       <c r="I22" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95156932186305</v>
+        <v>41.9515693218631</v>
       </c>
       <c r="S22" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T22" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U22" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V22" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W22" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X22" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2324,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E23" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F23" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G23" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H23" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T23" t="n">
-        <v>156.2172691342561</v>
+        <v>156.2172691342562</v>
       </c>
       <c r="U23" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V23" t="n">
-        <v>279.8519382247678</v>
+        <v>279.8519382247679</v>
       </c>
       <c r="W23" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X23" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.3376184106865</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C25" t="n">
-        <v>119.3465008532617</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D25" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E25" t="n">
-        <v>98.53364240120209</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F25" t="n">
-        <v>97.52072777756416</v>
+        <v>97.5207277775642</v>
       </c>
       <c r="G25" t="n">
-        <v>118.1459431407719</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H25" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453857</v>
       </c>
       <c r="I25" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95156932186305</v>
+        <v>41.9515693218631</v>
       </c>
       <c r="S25" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T25" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U25" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V25" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W25" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X25" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2561,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E26" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F26" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G26" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T26" t="n">
-        <v>156.2172691342561</v>
+        <v>156.2172691342562</v>
       </c>
       <c r="U26" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V26" t="n">
-        <v>279.8519382247678</v>
+        <v>279.8519382247679</v>
       </c>
       <c r="W26" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X26" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.3376184106865</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C28" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D28" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E28" t="n">
-        <v>98.53364240120209</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F28" t="n">
-        <v>97.52072777756416</v>
+        <v>97.5207277775642</v>
       </c>
       <c r="G28" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H28" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453901</v>
       </c>
       <c r="I28" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95156932186305</v>
+        <v>41.9515693218631</v>
       </c>
       <c r="S28" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T28" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U28" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V28" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W28" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X28" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2798,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E29" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F29" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G29" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015202</v>
       </c>
       <c r="T29" t="n">
-        <v>156.2172691342561</v>
+        <v>156.2172691342562</v>
       </c>
       <c r="U29" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V29" t="n">
-        <v>279.8519382247678</v>
+        <v>279.8519382247679</v>
       </c>
       <c r="W29" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X29" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.3376184106865</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.8325163776689</v>
       </c>
       <c r="I30" t="n">
-        <v>9.531517641698287</v>
+        <v>9.531517641698272</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C31" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D31" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E31" t="n">
-        <v>98.53364240120209</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F31" t="n">
-        <v>97.52072777756416</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G31" t="n">
-        <v>118.1459431407719</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H31" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I31" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95156932186305</v>
+        <v>41.95156932186309</v>
       </c>
       <c r="S31" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T31" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U31" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V31" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W31" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X31" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.6843331067274</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>363.0670066051173</v>
       </c>
       <c r="H32" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.32657882015198</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T32" t="n">
-        <v>156.2172691342561</v>
+        <v>156.2172691342562</v>
       </c>
       <c r="U32" t="n">
         <v>203.0984998092974</v>
@@ -3187,25 +3187,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D34" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E34" t="n">
-        <v>98.53364240120209</v>
+        <v>98.53364240120212</v>
       </c>
       <c r="F34" t="n">
-        <v>97.52072777756416</v>
+        <v>97.52072777756419</v>
       </c>
       <c r="G34" t="n">
-        <v>118.1459431407719</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H34" t="n">
-        <v>97.03655934453897</v>
+        <v>97.036559344539</v>
       </c>
       <c r="I34" t="n">
-        <v>49.06724162340398</v>
+        <v>49.06724162340308</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95156932186305</v>
+        <v>41.95156932186308</v>
       </c>
       <c r="S34" t="n">
         <v>142.2251821649061</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.32657882015199</v>
+        <v>62.32657882015201</v>
       </c>
       <c r="T35" t="n">
         <v>156.2172691342561</v>
@@ -3424,25 +3424,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C37" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D37" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E37" t="n">
-        <v>98.53364240120209</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F37" t="n">
-        <v>97.52072777756416</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G37" t="n">
-        <v>118.1459431407719</v>
+        <v>118.145943140772</v>
       </c>
       <c r="H37" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I37" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340364</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C40" t="n">
-        <v>119.3465008532607</v>
+        <v>119.3465008532608</v>
       </c>
       <c r="D40" t="n">
         <v>100.7151527728453</v>
       </c>
       <c r="E40" t="n">
-        <v>98.53364240120209</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F40" t="n">
-        <v>97.52072777756416</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G40" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H40" t="n">
-        <v>97.03655934453897</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I40" t="n">
-        <v>49.06724162340362</v>
+        <v>49.06724162340363</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95156932186305</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S40" t="n">
         <v>142.2251821649061</v>
@@ -3983,16 +3983,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E44" t="n">
-        <v>334.0300498268948</v>
+        <v>334.0300498268947</v>
       </c>
       <c r="F44" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G44" t="n">
-        <v>363.0670066051174</v>
+        <v>363.0670066051173</v>
       </c>
       <c r="H44" t="n">
-        <v>247.1744574010469</v>
+        <v>247.1744574010468</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.32657882015201</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T44" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U44" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V44" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W44" t="n">
-        <v>301.340648472046</v>
+        <v>301.3406484720459</v>
       </c>
       <c r="X44" t="n">
-        <v>321.830780433102</v>
+        <v>321.8307804331019</v>
       </c>
       <c r="Y44" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4141,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E46" t="n">
-        <v>98.53364240120212</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F46" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G46" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I46" t="n">
-        <v>49.06724162340365</v>
+        <v>49.06724162340363</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95156932186308</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S46" t="n">
         <v>142.2251821649061</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.16591425610336</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C2" t="n">
-        <v>62.16591425610336</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D2" t="n">
-        <v>62.16591425610336</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E2" t="n">
-        <v>62.16591425610336</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F2" t="n">
-        <v>55.22041350689989</v>
+        <v>31.43886478955102</v>
       </c>
       <c r="G2" t="n">
-        <v>15.2366994040306</v>
+        <v>15.98155416820249</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2366994040306</v>
+        <v>15.98155416820249</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
@@ -4334,13 +4334,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
-        <v>120.7308247336138</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
         <v>158.3355078473624</v>
@@ -4349,31 +4349,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.2764642733967</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
@@ -4413,19 +4413,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O3" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="P3" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P3" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4434,25 +4434,25 @@
         <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T3" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U3" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V3" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W3" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X3" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>105.6285745504463</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>105.6285745504463</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>105.6285745504463</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>105.6285745504463</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U4" t="n">
-        <v>105.6285745504463</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V4" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W4" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X4" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F5" t="n">
-        <v>101.3146776270625</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G5" t="n">
-        <v>85.85736700571397</v>
+        <v>22.92705491740596</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>22.92705491740596</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
         <v>79.95943146291799</v>
@@ -4586,31 +4586,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T5" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4653,13 @@
         <v>40.77139327069581</v>
       </c>
       <c r="M6" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N6" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="N6" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4668,25 +4668,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T6" t="n">
-        <v>118.3517937444931</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="U6" t="n">
-        <v>118.3517937444931</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="W6" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="X6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y6" t="n">
         <v>3.920842809732961</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>90.46354404567346</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U7" t="n">
-        <v>90.46354404567346</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V7" t="n">
-        <v>90.46354404567346</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W7" t="n">
-        <v>90.46354404567346</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.6069389803212</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="C8" t="n">
-        <v>77.62322487745189</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6395107745826</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="E8" t="n">
-        <v>37.6395107745826</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="F8" t="n">
-        <v>30.69401002537914</v>
+        <v>58.60773488116507</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N8" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O8" t="n">
         <v>158.3355078473624</v>
@@ -4826,28 +4826,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>117.6069389803212</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S8" t="n">
-        <v>117.6069389803212</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T8" t="n">
-        <v>117.6069389803212</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U8" t="n">
-        <v>117.6069389803212</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V8" t="n">
-        <v>117.6069389803212</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W8" t="n">
-        <v>117.6069389803212</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X8" t="n">
-        <v>117.6069389803212</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y8" t="n">
-        <v>117.6069389803212</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
         <v>119.1474696551402</v>
@@ -4911,22 +4911,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U9" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W9" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4981,31 +4981,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R10" t="n">
-        <v>90.46354404567346</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S10" t="n">
-        <v>90.46354404567346</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T10" t="n">
-        <v>50.47982994280417</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U10" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V10" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W10" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1999.812250832308</v>
+        <v>1137.329259214763</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.849733891897</v>
+        <v>768.3667422743513</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.584035285146</v>
+        <v>410.1010436676007</v>
       </c>
       <c r="E11" t="n">
-        <v>886.7957826869019</v>
+        <v>410.1010436676007</v>
       </c>
       <c r="F11" t="n">
-        <v>477.8214574399562</v>
+        <v>410.1010436676007</v>
       </c>
       <c r="G11" t="n">
-        <v>62.58640156284712</v>
+        <v>410.1010436676007</v>
       </c>
       <c r="H11" t="n">
-        <v>62.58640156284712</v>
+        <v>110.852157424854</v>
       </c>
       <c r="I11" t="n">
-        <v>62.58640156284712</v>
+        <v>62.58640156284709</v>
       </c>
       <c r="J11" t="n">
-        <v>237.9392141677041</v>
+        <v>237.9392141677035</v>
       </c>
       <c r="K11" t="n">
-        <v>551.4861429809655</v>
+        <v>551.4861429809648</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3705957477714</v>
+        <v>977.3705957477705</v>
       </c>
       <c r="M11" t="n">
-        <v>1482.918546043856</v>
+        <v>1482.918546043855</v>
       </c>
       <c r="N11" t="n">
-        <v>2001.260599088675</v>
+        <v>2001.260599088674</v>
       </c>
       <c r="O11" t="n">
-        <v>2477.381040081316</v>
+        <v>2477.381040081315</v>
       </c>
       <c r="P11" t="n">
-        <v>2849.237820173867</v>
+        <v>2849.237820173866</v>
       </c>
       <c r="Q11" t="n">
-        <v>3080.314029071114</v>
+        <v>3080.314029071112</v>
       </c>
       <c r="R11" t="n">
-        <v>3129.320078142356</v>
+        <v>3129.320078142354</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.320078142356</v>
+        <v>3015.324031776968</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.320078142356</v>
+        <v>2808.634477612673</v>
       </c>
       <c r="U11" t="n">
-        <v>3129.320078142356</v>
+        <v>2555.090992428741</v>
       </c>
       <c r="V11" t="n">
-        <v>3129.320078142356</v>
+        <v>2224.02810508517</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.551422872242</v>
+        <v>1871.259449815056</v>
       </c>
       <c r="X11" t="n">
-        <v>2776.551422872242</v>
+        <v>1497.793691553975</v>
       </c>
       <c r="Y11" t="n">
-        <v>2386.41209089643</v>
+        <v>1497.793691553975</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>165.7032680133935</v>
       </c>
       <c r="H12" t="n">
-        <v>74.36112008740227</v>
+        <v>74.36112008740226</v>
       </c>
       <c r="I12" t="n">
-        <v>62.58640156284712</v>
+        <v>62.58640156284709</v>
       </c>
       <c r="J12" t="n">
-        <v>148.2074885062792</v>
+        <v>148.207488506279</v>
       </c>
       <c r="K12" t="n">
-        <v>372.7023883436097</v>
+        <v>372.7023883436094</v>
       </c>
       <c r="L12" t="n">
-        <v>720.8860267214341</v>
+        <v>720.8860267214336</v>
       </c>
       <c r="M12" t="n">
         <v>1146.556778119373</v>
       </c>
       <c r="N12" t="n">
-        <v>1597.902412599712</v>
+        <v>1725.00374262387</v>
       </c>
       <c r="O12" t="n">
-        <v>1988.575695423497</v>
+        <v>2115.677025447656</v>
       </c>
       <c r="P12" t="n">
-        <v>2282.792381011324</v>
+        <v>2409.893711035482</v>
       </c>
       <c r="Q12" t="n">
-        <v>2517.01984944158</v>
+        <v>2556.650577309663</v>
       </c>
       <c r="R12" t="n">
         <v>2556.650577309663</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.2180409377087</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2818580098018</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="D13" t="n">
-        <v>525.165218597466</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="E13" t="n">
-        <v>377.2521250150729</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="F13" t="n">
-        <v>230.3621775171628</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="G13" t="n">
-        <v>62.58640156284712</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="H13" t="n">
-        <v>62.58640156284712</v>
+        <v>162.1055632940167</v>
       </c>
       <c r="I13" t="n">
-        <v>62.58640156284712</v>
+        <v>62.58640156284709</v>
       </c>
       <c r="J13" t="n">
-        <v>102.6548439772311</v>
+        <v>102.654843977231</v>
       </c>
       <c r="K13" t="n">
-        <v>298.3364401167968</v>
+        <v>298.3364401167967</v>
       </c>
       <c r="L13" t="n">
-        <v>604.2679469628308</v>
+        <v>604.2679469628306</v>
       </c>
       <c r="M13" t="n">
-        <v>937.2189492640275</v>
+        <v>937.2189492640271</v>
       </c>
       <c r="N13" t="n">
         <v>1267.687737334436</v>
       </c>
       <c r="O13" t="n">
-        <v>1556.912855526277</v>
+        <v>1556.912855526276</v>
       </c>
       <c r="P13" t="n">
         <v>1780.874227093655</v>
@@ -5221,28 +5221,28 @@
         <v>1852.498391782902</v>
       </c>
       <c r="R13" t="n">
-        <v>1852.498391782902</v>
+        <v>1759.388317073108</v>
       </c>
       <c r="S13" t="n">
-        <v>1852.498391782902</v>
+        <v>1566.431299320303</v>
       </c>
       <c r="T13" t="n">
-        <v>1630.420126492008</v>
+        <v>1344.353034029408</v>
       </c>
       <c r="U13" t="n">
-        <v>1543.273226702926</v>
+        <v>1055.246188646195</v>
       </c>
       <c r="V13" t="n">
-        <v>1543.273226702926</v>
+        <v>800.5617004403083</v>
       </c>
       <c r="W13" t="n">
-        <v>1253.856056665966</v>
+        <v>511.1445304033477</v>
       </c>
       <c r="X13" t="n">
-        <v>1025.866505767948</v>
+        <v>283.1549795053302</v>
       </c>
       <c r="Y13" t="n">
-        <v>1025.866505767948</v>
+        <v>283.1549795053302</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1902.973791026687</v>
+        <v>2063.809668931266</v>
       </c>
       <c r="C14" t="n">
-        <v>1534.011274086275</v>
+        <v>1694.847151990854</v>
       </c>
       <c r="D14" t="n">
-        <v>1175.745575479525</v>
+        <v>1336.581453384104</v>
       </c>
       <c r="E14" t="n">
-        <v>789.9573228812806</v>
+        <v>950.7932007858594</v>
       </c>
       <c r="F14" t="n">
-        <v>378.9714180916732</v>
+        <v>539.8072959962519</v>
       </c>
       <c r="G14" t="n">
-        <v>378.9714180916732</v>
+        <v>124.6887840260656</v>
       </c>
       <c r="H14" t="n">
-        <v>80.91608713569948</v>
+        <v>124.6887840260656</v>
       </c>
       <c r="I14" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J14" t="n">
-        <v>386.763869543911</v>
+        <v>402.5721059208794</v>
       </c>
       <c r="K14" t="n">
-        <v>1035.74456484505</v>
+        <v>730.6488427765657</v>
       </c>
       <c r="L14" t="n">
-        <v>1479.654529301999</v>
+        <v>1588.04340963846</v>
       </c>
       <c r="M14" t="n">
-        <v>2005.259334497641</v>
+        <v>2113.648214834102</v>
       </c>
       <c r="N14" t="n">
-        <v>2543.982783323087</v>
+        <v>2652.371663659548</v>
       </c>
       <c r="O14" t="n">
-        <v>3039.348798403034</v>
+        <v>3147.737678739495</v>
       </c>
       <c r="P14" t="n">
-        <v>3746.211951806776</v>
+        <v>3536.020111053469</v>
       </c>
       <c r="Q14" t="n">
         <v>3989.623141459238</v>
       </c>
       <c r="R14" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S14" t="n">
-        <v>3934.464054698591</v>
+        <v>3934.46405469859</v>
       </c>
       <c r="T14" t="n">
-        <v>3728.284671486851</v>
+        <v>3934.46405469859</v>
       </c>
       <c r="U14" t="n">
-        <v>3474.750509815472</v>
+        <v>3680.929893027212</v>
       </c>
       <c r="V14" t="n">
-        <v>3143.687622471902</v>
+        <v>3566.783254502393</v>
       </c>
       <c r="W14" t="n">
-        <v>2790.918967201787</v>
+        <v>3214.014599232279</v>
       </c>
       <c r="X14" t="n">
-        <v>2679.71296306662</v>
+        <v>2840.548840971199</v>
       </c>
       <c r="Y14" t="n">
-        <v>2289.573631090809</v>
+        <v>2450.409508995387</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F15" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G15" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H15" t="n">
-        <v>90.54388273337452</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I15" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J15" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K15" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325574</v>
       </c>
       <c r="L15" t="n">
-        <v>796.6986944040993</v>
+        <v>768.128480964808</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879931</v>
       </c>
       <c r="N15" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O15" t="n">
         <v>2110.309762265828</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>858.7796979883997</v>
+        <v>249.8522700636064</v>
       </c>
       <c r="C16" t="n">
-        <v>689.8435150604928</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="D16" t="n">
-        <v>689.8435150604928</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="E16" t="n">
-        <v>541.9304214780997</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="F16" t="n">
-        <v>395.0404739801893</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="G16" t="n">
-        <v>227.3169756103521</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="H16" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I16" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J16" t="n">
-        <v>124.6070038707674</v>
+        <v>124.6070038707676</v>
       </c>
       <c r="K16" t="n">
-        <v>326.2414380993574</v>
+        <v>326.2414380993577</v>
       </c>
       <c r="L16" t="n">
-        <v>639.7905282089205</v>
+        <v>639.7905282089208</v>
       </c>
       <c r="M16" t="n">
-        <v>980.773203997523</v>
+        <v>980.7732039975231</v>
       </c>
       <c r="N16" t="n">
         <v>1319.08269031148</v>
       </c>
       <c r="O16" t="n">
-        <v>1615.549962385023</v>
+        <v>1615.549962385022</v>
       </c>
       <c r="P16" t="n">
         <v>1845.708247718941</v>
@@ -5458,28 +5458,28 @@
         <v>1921.622834289096</v>
       </c>
       <c r="R16" t="n">
-        <v>1921.622834289096</v>
+        <v>1830.863349877752</v>
       </c>
       <c r="S16" t="n">
-        <v>1729.576872258517</v>
+        <v>1638.817387847173</v>
       </c>
       <c r="T16" t="n">
-        <v>1729.576872258517</v>
+        <v>1416.962490417231</v>
       </c>
       <c r="U16" t="n">
-        <v>1489.210292860187</v>
+        <v>1127.858496538626</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.210292860187</v>
+        <v>873.1740083327388</v>
       </c>
       <c r="W16" t="n">
-        <v>1489.210292860187</v>
+        <v>873.1740083327388</v>
       </c>
       <c r="X16" t="n">
-        <v>1261.22074196217</v>
+        <v>645.1844574347215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1040.428162818639</v>
+        <v>431.5007348938461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2027.78733181283</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C17" t="n">
         <v>1707.208976736426</v>
@@ -5507,43 +5507,43 @@
         <v>330.587256227666</v>
       </c>
       <c r="H17" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I17" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J17" t="n">
-        <v>386.763869543911</v>
+        <v>433.3692259645356</v>
       </c>
       <c r="K17" t="n">
-        <v>1035.74456484505</v>
+        <v>761.445962820222</v>
       </c>
       <c r="L17" t="n">
-        <v>1479.654529301999</v>
+        <v>1205.355927277171</v>
       </c>
       <c r="M17" t="n">
-        <v>2005.259334497641</v>
+        <v>2175.979130630717</v>
       </c>
       <c r="N17" t="n">
-        <v>2543.982783323087</v>
+        <v>2714.702579456162</v>
       </c>
       <c r="O17" t="n">
-        <v>3039.348798403034</v>
+        <v>3357.929519492801</v>
       </c>
       <c r="P17" t="n">
-        <v>3746.211951806776</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q17" t="n">
         <v>3989.623141459238</v>
       </c>
       <c r="R17" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S17" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T17" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U17" t="n">
         <v>3619.902995407493</v>
@@ -5580,16 +5580,16 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F18" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G18" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H18" t="n">
-        <v>90.54388273337452</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I18" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J18" t="n">
         <v>172.3112574064236</v>
@@ -5604,16 +5604,16 @@
         <v>1209.284529879931</v>
       </c>
       <c r="N18" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O18" t="n">
-        <v>2081.739548826537</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P18" t="n">
-        <v>2387.626632255859</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.18485042445</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R18" t="n">
         <v>2570.755063863742</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.1542365433629</v>
+        <v>768.1542365433618</v>
       </c>
       <c r="C19" t="n">
-        <v>647.6022154794631</v>
+        <v>647.602215479462</v>
       </c>
       <c r="D19" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311334</v>
       </c>
       <c r="E19" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127475</v>
       </c>
       <c r="F19" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788442</v>
       </c>
       <c r="G19" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H19" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I19" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J19" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K19" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L19" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376608</v>
       </c>
       <c r="M19" t="n">
         <v>1170.458472169177</v>
@@ -5689,19 +5689,19 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P19" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q19" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R19" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S19" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U19" t="n">
         <v>1700.765680337962</v>
@@ -5710,13 +5710,13 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X19" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095944</v>
       </c>
     </row>
     <row r="20">
@@ -5741,40 +5741,40 @@
         <v>697.3216063338446</v>
       </c>
       <c r="G20" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H20" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I20" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J20" t="n">
-        <v>402.5721059208785</v>
+        <v>433.3692259645356</v>
       </c>
       <c r="K20" t="n">
-        <v>730.6488427765648</v>
+        <v>761.445962820222</v>
       </c>
       <c r="L20" t="n">
-        <v>1588.043409638459</v>
+        <v>1618.840529682117</v>
       </c>
       <c r="M20" t="n">
-        <v>2113.648214834101</v>
+        <v>2144.445334877758</v>
       </c>
       <c r="N20" t="n">
-        <v>2652.371663659547</v>
+        <v>2862.563504412853</v>
       </c>
       <c r="O20" t="n">
-        <v>3147.737678739494</v>
+        <v>3357.929519492801</v>
       </c>
       <c r="P20" t="n">
-        <v>3536.020111053468</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q20" t="n">
-        <v>3989.623141459237</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R20" t="n">
-        <v>4045.804356784972</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S20" t="n">
         <v>3982.848216562597</v>
@@ -5823,31 +5823,31 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H21" t="n">
-        <v>90.54388273337447</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I21" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J21" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K21" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325574</v>
       </c>
       <c r="L21" t="n">
-        <v>796.6986944040993</v>
+        <v>768.128480964808</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879931</v>
       </c>
       <c r="N21" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826537</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.19684569515</v>
+        <v>2387.626632255859</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.755063863742</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.1542365433638</v>
+        <v>768.1542365433627</v>
       </c>
       <c r="C22" t="n">
-        <v>647.602215479464</v>
+        <v>647.6022154794629</v>
       </c>
       <c r="D22" t="n">
-        <v>545.8697379311354</v>
+        <v>545.8697379311343</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127482</v>
       </c>
       <c r="F22" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G22" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H22" t="n">
-        <v>130.4789574623697</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I22" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J22" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K22" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L22" t="n">
         <v>782.054479337661</v>
@@ -5932,10 +5932,10 @@
         <v>2300.993370632403</v>
       </c>
       <c r="R22" t="n">
-        <v>2258.618048085066</v>
+        <v>2258.618048085067</v>
       </c>
       <c r="S22" t="n">
-        <v>2114.956247918494</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T22" t="n">
         <v>1941.485512352559</v>
@@ -5944,16 +5944,16 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V22" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W22" t="n">
         <v>1253.432345823129</v>
       </c>
       <c r="X22" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.4185395095964</v>
+        <v>901.4185395095953</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2027.78733181283</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C23" t="n">
-        <v>1707.208976736425</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D23" t="n">
         <v>1397.327439993682</v>
@@ -5975,64 +5975,64 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F23" t="n">
-        <v>697.3216063338443</v>
+        <v>697.321606333845</v>
       </c>
       <c r="G23" t="n">
-        <v>330.5872562276652</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H23" t="n">
-        <v>80.91608713569869</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I23" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J23" t="n">
         <v>265.9635769441826</v>
       </c>
       <c r="K23" t="n">
-        <v>914.9442722453221</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L23" t="n">
-        <v>1358.854236702271</v>
+        <v>1037.950278256817</v>
       </c>
       <c r="M23" t="n">
-        <v>1884.459041897912</v>
+        <v>1563.555083452459</v>
       </c>
       <c r="N23" t="n">
-        <v>2423.182490723359</v>
+        <v>2478.923527648833</v>
       </c>
       <c r="O23" t="n">
-        <v>3295.540685253424</v>
+        <v>2974.289542728781</v>
       </c>
       <c r="P23" t="n">
-        <v>3746.211951806774</v>
+        <v>3681.152696132523</v>
       </c>
       <c r="Q23" t="n">
-        <v>3989.623141459237</v>
+        <v>3924.563885784985</v>
       </c>
       <c r="R23" t="n">
-        <v>4045.804356784972</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S23" t="n">
-        <v>3982.848216562596</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T23" t="n">
-        <v>3825.052995214863</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U23" t="n">
-        <v>3619.902995407492</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V23" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W23" t="n">
-        <v>3032.839776521821</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X23" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y23" t="n">
-        <v>2366.003010012944</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H24" t="n">
-        <v>90.54388273337447</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I24" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J24" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K24" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325574</v>
       </c>
       <c r="L24" t="n">
-        <v>796.6986944040993</v>
+        <v>768.128480964808</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879931</v>
       </c>
       <c r="N24" t="n">
         <v>1705.095525064084</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.1542365433627</v>
+        <v>768.1542365433628</v>
       </c>
       <c r="C25" t="n">
-        <v>647.6022154794621</v>
+        <v>647.602215479463</v>
       </c>
       <c r="D25" t="n">
-        <v>545.8697379311335</v>
+        <v>545.8697379311344</v>
       </c>
       <c r="E25" t="n">
-        <v>446.3408062127476</v>
+        <v>446.3408062127484</v>
       </c>
       <c r="F25" t="n">
-        <v>347.8350205788455</v>
+        <v>347.8350205788452</v>
       </c>
       <c r="G25" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730149</v>
       </c>
       <c r="H25" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I25" t="n">
-        <v>80.91608713569944</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J25" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K25" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L25" t="n">
-        <v>782.0544793376612</v>
+        <v>782.054479337661</v>
       </c>
       <c r="M25" t="n">
         <v>1170.458472169177</v>
@@ -6163,19 +6163,19 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P25" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q25" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R25" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S25" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U25" t="n">
         <v>1700.765680337962</v>
@@ -6184,13 +6184,13 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X25" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.4185395095952</v>
+        <v>901.4185395095953</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2027.78733181283</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C26" t="n">
         <v>1707.208976736426</v>
@@ -6218,10 +6218,10 @@
         <v>330.587256227666</v>
       </c>
       <c r="H26" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I26" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J26" t="n">
         <v>265.9635769441826</v>
@@ -6236,37 +6236,37 @@
         <v>1563.555083452459</v>
       </c>
       <c r="N26" t="n">
-        <v>2102.278532277905</v>
+        <v>2166.990603872968</v>
       </c>
       <c r="O26" t="n">
-        <v>2974.636726807971</v>
+        <v>3039.348798403033</v>
       </c>
       <c r="P26" t="n">
-        <v>3681.499880211713</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q26" t="n">
-        <v>3989.623141459237</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R26" t="n">
-        <v>4045.804356784973</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S26" t="n">
-        <v>3982.848216562597</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T26" t="n">
         <v>3825.052995214864</v>
       </c>
       <c r="U26" t="n">
-        <v>3619.902995407492</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V26" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W26" t="n">
         <v>3032.839776521822</v>
       </c>
       <c r="X26" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y26" t="n">
         <v>2366.003010012945</v>
@@ -6297,34 +6297,34 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H27" t="n">
-        <v>90.54388273337449</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I27" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J27" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K27" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325574</v>
       </c>
       <c r="L27" t="n">
-        <v>796.6986944040993</v>
+        <v>768.128480964808</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879931</v>
       </c>
       <c r="N27" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826537</v>
       </c>
       <c r="P27" t="n">
-        <v>2416.19684569515</v>
+        <v>2387.626632255859</v>
       </c>
       <c r="Q27" t="n">
-        <v>2570.755063863742</v>
+        <v>2542.18485042445</v>
       </c>
       <c r="R27" t="n">
         <v>2570.755063863742</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.1542365433629</v>
+        <v>768.1542365433633</v>
       </c>
       <c r="C28" t="n">
-        <v>647.6022154794632</v>
+        <v>647.6022154794634</v>
       </c>
       <c r="D28" t="n">
-        <v>545.8697379311346</v>
+        <v>545.8697379311349</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127489</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G28" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H28" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I28" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J28" t="n">
         <v>172.0283209136808</v>
       </c>
       <c r="K28" t="n">
-        <v>421.0840721851843</v>
+        <v>421.0840721851842</v>
       </c>
       <c r="L28" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376607</v>
       </c>
       <c r="M28" t="n">
         <v>1170.458472169177</v>
@@ -6400,19 +6400,19 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P28" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q28" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R28" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S28" t="n">
         <v>2114.956247918495</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U28" t="n">
         <v>1700.765680337962</v>
@@ -6421,13 +6421,13 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X28" t="n">
-        <v>1073.826956789118</v>
+        <v>1073.826956789119</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095958</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C29" t="n">
         <v>1707.208976736426</v>
@@ -6455,25 +6455,25 @@
         <v>330.587256227666</v>
       </c>
       <c r="H29" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="I29" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J29" t="n">
-        <v>265.9635769441826</v>
+        <v>265.9635769441828</v>
       </c>
       <c r="K29" t="n">
-        <v>594.040313799869</v>
+        <v>914.9442722453225</v>
       </c>
       <c r="L29" t="n">
-        <v>1037.950278256817</v>
+        <v>1358.854236702271</v>
       </c>
       <c r="M29" t="n">
-        <v>1563.555083452459</v>
+        <v>2323.840055587407</v>
       </c>
       <c r="N29" t="n">
-        <v>2485.571324962736</v>
+        <v>2862.563504412853</v>
       </c>
       <c r="O29" t="n">
         <v>3357.929519492801</v>
@@ -6488,10 +6488,10 @@
         <v>4045.804356784974</v>
       </c>
       <c r="S29" t="n">
-        <v>3982.848216562597</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T29" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214865</v>
       </c>
       <c r="U29" t="n">
         <v>3619.902995407493</v>
@@ -6537,22 +6537,22 @@
         <v>90.5438827333745</v>
       </c>
       <c r="I30" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J30" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K30" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325575</v>
       </c>
       <c r="L30" t="n">
-        <v>796.6986944040993</v>
+        <v>768.1284809648082</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879932</v>
       </c>
       <c r="N30" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O30" t="n">
         <v>2110.309762265828</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.1542365433629</v>
+        <v>768.1542365433627</v>
       </c>
       <c r="C31" t="n">
-        <v>647.6022154794632</v>
+        <v>647.6022154794629</v>
       </c>
       <c r="D31" t="n">
-        <v>545.8697379311346</v>
+        <v>545.8697379311343</v>
       </c>
       <c r="E31" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127482</v>
       </c>
       <c r="F31" t="n">
-        <v>347.8350205788454</v>
+        <v>347.835020578845</v>
       </c>
       <c r="G31" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730147</v>
       </c>
       <c r="H31" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623692</v>
       </c>
       <c r="I31" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J31" t="n">
-        <v>172.0283209136809</v>
+        <v>172.0283209136811</v>
       </c>
       <c r="K31" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851845</v>
       </c>
       <c r="L31" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M31" t="n">
         <v>1170.458472169177</v>
@@ -6637,34 +6637,34 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P31" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q31" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R31" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S31" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U31" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337961</v>
       </c>
       <c r="V31" t="n">
         <v>1494.465353996082</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X31" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095953</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2027.787331812831</v>
       </c>
       <c r="C32" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D32" t="n">
         <v>1397.327439993683</v>
@@ -6686,40 +6686,40 @@
         <v>1059.923349259446</v>
       </c>
       <c r="F32" t="n">
-        <v>697.3216063338459</v>
+        <v>697.3216063338455</v>
       </c>
       <c r="G32" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H32" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I32" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J32" t="n">
-        <v>265.9635769441827</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K32" t="n">
-        <v>594.0403137998691</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L32" t="n">
-        <v>1037.950278256818</v>
+        <v>1037.950278256817</v>
       </c>
       <c r="M32" t="n">
-        <v>1563.555083452459</v>
+        <v>2008.573481610363</v>
       </c>
       <c r="N32" t="n">
-        <v>2102.278532277905</v>
+        <v>2547.296930435809</v>
       </c>
       <c r="O32" t="n">
-        <v>2974.289542728781</v>
+        <v>3357.929519492801</v>
       </c>
       <c r="P32" t="n">
-        <v>3681.152696132523</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q32" t="n">
-        <v>3924.563885784986</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R32" t="n">
         <v>4045.804356784974</v>
@@ -6728,22 +6728,22 @@
         <v>3982.848216562598</v>
       </c>
       <c r="T32" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U32" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V32" t="n">
         <v>3337.22426992793</v>
       </c>
       <c r="W32" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X32" t="n">
         <v>2707.75818012475</v>
       </c>
       <c r="Y32" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F33" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G33" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H33" t="n">
-        <v>90.54388273337452</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I33" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J33" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K33" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325574</v>
       </c>
       <c r="L33" t="n">
-        <v>796.6986944040993</v>
+        <v>768.128480964808</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.854743319223</v>
+        <v>1209.284529879931</v>
       </c>
       <c r="N33" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624793</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826537</v>
       </c>
       <c r="P33" t="n">
         <v>2416.19684569515</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.1542365433634</v>
+        <v>768.1542365433627</v>
       </c>
       <c r="C34" t="n">
-        <v>647.6022154794636</v>
+        <v>647.6022154794629</v>
       </c>
       <c r="D34" t="n">
-        <v>545.869737931135</v>
+        <v>545.8697379311343</v>
       </c>
       <c r="E34" t="n">
-        <v>446.340806212749</v>
+        <v>446.3408062127484</v>
       </c>
       <c r="F34" t="n">
-        <v>347.8350205788458</v>
+        <v>347.8350205788452</v>
       </c>
       <c r="G34" t="n">
-        <v>228.4956840730156</v>
+        <v>228.4956840730149</v>
       </c>
       <c r="H34" t="n">
-        <v>130.4789574623702</v>
+        <v>130.4789574623692</v>
       </c>
       <c r="I34" t="n">
-        <v>80.91608713569948</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J34" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K34" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851841</v>
       </c>
       <c r="L34" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376607</v>
       </c>
       <c r="M34" t="n">
-        <v>1170.458472169177</v>
+        <v>1170.458472169176</v>
       </c>
       <c r="N34" t="n">
         <v>1556.189275526047</v>
       </c>
       <c r="O34" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642502</v>
       </c>
       <c r="P34" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q34" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R34" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S34" t="n">
         <v>2114.956247918495</v>
@@ -6892,16 +6892,16 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V34" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W34" t="n">
         <v>1253.432345823129</v>
       </c>
       <c r="X34" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.4185395095959</v>
+        <v>901.4185395095952</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C35" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E35" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F35" t="n">
-        <v>697.3216063338455</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G35" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H35" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I35" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J35" t="n">
         <v>265.9635769441826</v>
       </c>
       <c r="K35" t="n">
-        <v>825.5527240917443</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L35" t="n">
-        <v>1269.462688548693</v>
+        <v>1037.950278256817</v>
       </c>
       <c r="M35" t="n">
-        <v>1795.067493744334</v>
+        <v>1563.555083452459</v>
       </c>
       <c r="N35" t="n">
-        <v>2333.79094256978</v>
+        <v>2535.251987445769</v>
       </c>
       <c r="O35" t="n">
-        <v>2829.156957649728</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P35" t="n">
-        <v>3536.020111053469</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q35" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R35" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S35" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T35" t="n">
         <v>3825.052995214864</v>
       </c>
       <c r="U35" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V35" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W35" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X35" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y35" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="36">
@@ -7008,16 +7008,16 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H36" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I36" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J36" t="n">
-        <v>200.8814708457149</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K36" t="n">
-        <v>435.2451987718487</v>
+        <v>406.6749853325574</v>
       </c>
       <c r="L36" t="n">
         <v>796.6986944040993</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.1542365433629</v>
+        <v>768.154236543363</v>
       </c>
       <c r="C37" t="n">
-        <v>647.6022154794631</v>
+        <v>647.6022154794632</v>
       </c>
       <c r="D37" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311346</v>
       </c>
       <c r="E37" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127487</v>
       </c>
       <c r="F37" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788455</v>
       </c>
       <c r="G37" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H37" t="n">
-        <v>130.4789574623696</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I37" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J37" t="n">
-        <v>172.0283209136809</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K37" t="n">
         <v>421.0840721851844</v>
       </c>
       <c r="L37" t="n">
-        <v>782.0544793376611</v>
+        <v>782.0544793376612</v>
       </c>
       <c r="M37" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N37" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526048</v>
       </c>
       <c r="O37" t="n">
         <v>1900.077864642503</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.657467019334</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q37" t="n">
-        <v>2300.993370632403</v>
+        <v>2300.993370632404</v>
       </c>
       <c r="R37" t="n">
         <v>2258.618048085067</v>
@@ -7132,13 +7132,13 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W37" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X37" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095956</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C38" t="n">
-        <v>1707.208976736425</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D38" t="n">
         <v>1397.327439993682</v>
@@ -7160,7 +7160,7 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F38" t="n">
-        <v>697.3216063338446</v>
+        <v>697.321606333845</v>
       </c>
       <c r="G38" t="n">
         <v>330.587256227666</v>
@@ -7172,34 +7172,34 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J38" t="n">
-        <v>265.9635769441826</v>
+        <v>433.3692259645356</v>
       </c>
       <c r="K38" t="n">
-        <v>825.5527240917443</v>
+        <v>761.445962820222</v>
       </c>
       <c r="L38" t="n">
-        <v>1269.462688548693</v>
+        <v>1205.355927277171</v>
       </c>
       <c r="M38" t="n">
-        <v>1795.067493744334</v>
+        <v>1730.960732472812</v>
       </c>
       <c r="N38" t="n">
-        <v>2333.79094256978</v>
+        <v>2702.657636466122</v>
       </c>
       <c r="O38" t="n">
-        <v>2829.156957649728</v>
+        <v>3198.02365154607</v>
       </c>
       <c r="P38" t="n">
-        <v>3536.020111053469</v>
+        <v>3681.152696132522</v>
       </c>
       <c r="Q38" t="n">
-        <v>3989.623141459238</v>
+        <v>3924.563885784985</v>
       </c>
       <c r="R38" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S38" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T38" t="n">
         <v>3825.052995214864</v>
@@ -7208,13 +7208,13 @@
         <v>3619.902995407493</v>
       </c>
       <c r="V38" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W38" t="n">
         <v>3032.839776521822</v>
       </c>
       <c r="X38" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y38" t="n">
         <v>2366.003010012945</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.1542365433629</v>
+        <v>768.154236543363</v>
       </c>
       <c r="C40" t="n">
         <v>647.6022154794632</v>
@@ -7330,7 +7330,7 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J40" t="n">
-        <v>172.0283209136809</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K40" t="n">
         <v>421.0840721851844</v>
@@ -7342,40 +7342,40 @@
         <v>1170.458472169177</v>
       </c>
       <c r="N40" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O40" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642502</v>
       </c>
       <c r="P40" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q40" t="n">
-        <v>2300.993370632403</v>
+        <v>2300.993370632402</v>
       </c>
       <c r="R40" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S40" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U40" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337961</v>
       </c>
       <c r="V40" t="n">
         <v>1494.465353996082</v>
       </c>
       <c r="W40" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X40" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y40" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095956</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D41" t="n">
         <v>1397.327439993682</v>
@@ -7397,40 +7397,40 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F41" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G41" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H41" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I41" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J41" t="n">
-        <v>433.3692259645356</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K41" t="n">
-        <v>761.445962820222</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L41" t="n">
-        <v>1205.355927277171</v>
+        <v>1037.950278256817</v>
       </c>
       <c r="M41" t="n">
-        <v>1730.960732472812</v>
+        <v>2008.573481610363</v>
       </c>
       <c r="N41" t="n">
-        <v>2269.684181298258</v>
+        <v>2547.296930435809</v>
       </c>
       <c r="O41" t="n">
-        <v>2765.050196378206</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P41" t="n">
-        <v>3470.960855379216</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q41" t="n">
-        <v>3924.563885784985</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R41" t="n">
         <v>4045.804356784973</v>
@@ -7445,13 +7445,13 @@
         <v>3619.902995407493</v>
       </c>
       <c r="V41" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W41" t="n">
         <v>3032.839776521822</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y41" t="n">
         <v>2366.003010012945</v>
@@ -7482,10 +7482,10 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H42" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I42" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J42" t="n">
         <v>172.3112574064236</v>
@@ -7503,10 +7503,10 @@
         <v>1676.525311624793</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.739548826537</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.626632255859</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q42" t="n">
         <v>2570.755063863742</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.154236543363</v>
+        <v>768.1542365433628</v>
       </c>
       <c r="C43" t="n">
-        <v>647.6022154794632</v>
+        <v>647.602215479463</v>
       </c>
       <c r="D43" t="n">
-        <v>545.8697379311346</v>
+        <v>545.8697379311344</v>
       </c>
       <c r="E43" t="n">
-        <v>446.3408062127487</v>
+        <v>446.3408062127484</v>
       </c>
       <c r="F43" t="n">
-        <v>347.8350205788455</v>
+        <v>347.8350205788452</v>
       </c>
       <c r="G43" t="n">
-        <v>228.4956840730152</v>
+        <v>228.495684073015</v>
       </c>
       <c r="H43" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I43" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J43" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K43" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851843</v>
       </c>
       <c r="L43" t="n">
         <v>782.054479337661</v>
@@ -7579,19 +7579,19 @@
         <v>1170.458472169177</v>
       </c>
       <c r="N43" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O43" t="n">
         <v>1900.077864642503</v>
       </c>
       <c r="P43" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q43" t="n">
         <v>2300.993370632403</v>
       </c>
       <c r="R43" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S43" t="n">
         <v>2114.956247918495</v>
@@ -7612,7 +7612,7 @@
         <v>1073.826956789118</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.4185395095956</v>
+        <v>901.4185395095953</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2027.787331812832</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C44" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D44" t="n">
-        <v>1397.327439993684</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E44" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F44" t="n">
-        <v>697.3216063338459</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G44" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H44" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I44" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J44" t="n">
-        <v>433.3692259645357</v>
+        <v>265.9635769441826</v>
       </c>
       <c r="K44" t="n">
-        <v>761.4459628202221</v>
+        <v>594.040313799869</v>
       </c>
       <c r="L44" t="n">
-        <v>1205.355927277171</v>
+        <v>1037.950278256817</v>
       </c>
       <c r="M44" t="n">
-        <v>1730.960732472812</v>
+        <v>2005.25933449764</v>
       </c>
       <c r="N44" t="n">
-        <v>2269.684181298258</v>
+        <v>2543.982783323086</v>
       </c>
       <c r="O44" t="n">
-        <v>2765.050196378206</v>
+        <v>3039.348798403033</v>
       </c>
       <c r="P44" t="n">
-        <v>3470.960855379218</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q44" t="n">
-        <v>3924.563885784986</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R44" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S44" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T44" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U44" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V44" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W44" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y44" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="45">
@@ -7713,16 +7713,16 @@
         <v>464.2061016507203</v>
       </c>
       <c r="F45" t="n">
-        <v>317.6715436776053</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G45" t="n">
         <v>181.2837982663734</v>
       </c>
       <c r="H45" t="n">
-        <v>90.54388273337453</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I45" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J45" t="n">
         <v>172.3112574064236</v>
@@ -7731,22 +7731,22 @@
         <v>406.6749853325574</v>
       </c>
       <c r="L45" t="n">
-        <v>768.128480964808</v>
+        <v>796.6986944040993</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.284529879931</v>
+        <v>1237.854743319223</v>
       </c>
       <c r="N45" t="n">
-        <v>1676.525311624793</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.739548826537</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P45" t="n">
-        <v>2387.626632255859</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.18485042445</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R45" t="n">
         <v>2570.755063863742</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.1542365433625</v>
+        <v>768.154236543363</v>
       </c>
       <c r="C46" t="n">
-        <v>647.6022154794626</v>
+        <v>647.6022154794632</v>
       </c>
       <c r="D46" t="n">
-        <v>545.8697379311341</v>
+        <v>545.8697379311346</v>
       </c>
       <c r="E46" t="n">
-        <v>446.3408062127481</v>
+        <v>446.3408062127487</v>
       </c>
       <c r="F46" t="n">
-        <v>347.8350205788449</v>
+        <v>347.8350205788455</v>
       </c>
       <c r="G46" t="n">
-        <v>228.4956840730147</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H46" t="n">
-        <v>130.4789574623699</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I46" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J46" t="n">
-        <v>172.0283209136811</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K46" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L46" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M46" t="n">
         <v>1170.458472169177</v>
@@ -7831,10 +7831,10 @@
         <v>2258.618048085066</v>
       </c>
       <c r="S46" t="n">
-        <v>2114.956247918494</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.485512352559</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U46" t="n">
         <v>1700.765680337962</v>
@@ -7849,7 +7849,7 @@
         <v>1073.826956789118</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.418539509595</v>
+        <v>901.4185395095956</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8301,7 +8301,7 @@
         <v>176.5389081776</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>170.9255890451739</v>
@@ -8310,7 +8310,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
         <v>275.3502919318278</v>
@@ -8462,10 +8462,10 @@
         <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>179.5656510478621</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>128.3851818425858</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.35414359199575</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>5.490631560732737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>122.0204975754831</v>
+        <v>137.9884131077745</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>28.8588014538296</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>28.85880145382981</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>122.0204975754831</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>149.3544696532232</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>28.8588014538297</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>30.51657663960875</v>
+        <v>1.657775185779087</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.9884131077736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>181.2067885956052</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>28.85880145382964</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>28.8588014538297</v>
       </c>
       <c r="R21" t="n">
         <v>1.657775185779087</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>380.4494902736649</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>63.01902448421799</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>28.85880145382964</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>28.8588014538297</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>65.36572888390151</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.36572888390029</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>28.85880145382963</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.657775185779087</v>
+        <v>30.51657663960875</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>443.8192057469637</v>
       </c>
       <c r="N29" t="n">
-        <v>387.1644370553847</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>28.85880145382961</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>28.85880145382873</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.657775185779087</v>
+        <v>1.657775185779059</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.4494902736649</v>
+        <v>318.4510848252974</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>28.8588014538296</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>28.85880145382953</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>233.8509194867426</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>330.617693906145</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>28.85880145382961</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>28.85880145382959</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>233.8509194867426</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>95.80465886108954</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>318.4510848252964</v>
       </c>
       <c r="P41" t="n">
-        <v>320.8365926131684</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>28.85880145382981</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.8588014538297</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>1.657775185779087</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>446.1659101466474</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>320.8365926131698</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>28.85880145382959</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.51657663960875</v>
+        <v>1.657775185779087</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.87405364766068</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.991463747235202</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.082705318338</v>
       </c>
       <c r="H11" t="n">
-        <v>296.2563973803192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.78309830338682</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8560859017321</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6226586226522</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0080503320928</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>59.993058132737</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0980181947725</v>
       </c>
       <c r="H13" t="n">
         <v>145.3970268884839</v>
       </c>
       <c r="I13" t="n">
-        <v>98.52397011385793</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.17897396269608</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.0274475752768</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>199.9403461381905</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9673268504844</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>295.0747776464139</v>
       </c>
       <c r="I14" t="n">
-        <v>43.33496992146246</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>204.1175893796232</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>214.7470863305643</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>259.6371565846545</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.046263386139</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.9368795899061</v>
       </c>
       <c r="I16" t="n">
         <v>96.9675618687707</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.85188956723013</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.6363484556427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>48.25004033547194</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>7.037768036628122</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.339550858072471e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.755396159656812e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1053393.599817549</v>
+        <v>1053393.599817548</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1314953.531723055</v>
+        <v>1314953.531723056</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1314953.531723055</v>
+        <v>1314953.531723056</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1314953.531723055</v>
+        <v>1314953.531723056</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1314953.531723056</v>
+        <v>1314953.531723055</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1314953.531723056</v>
+        <v>1314953.531723055</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1314953.531723056</v>
+        <v>1314953.531723055</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26320,37 +26320,37 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>116196.4159583972</v>
+        <v>116196.4159583971</v>
       </c>
       <c r="F2" t="n">
         <v>128940.808930388</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="H2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="I2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="L2" t="n">
+        <v>143682.3097262494</v>
+      </c>
+      <c r="M2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="I2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="K2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262495</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1065126.30634947</v>
+        <v>1065126.306349469</v>
       </c>
       <c r="F3" t="n">
-        <v>88335.22644493741</v>
+        <v>88335.22644493783</v>
       </c>
       <c r="G3" t="n">
-        <v>38320.25619629367</v>
+        <v>38320.25619629363</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380385</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>38320.25619629366</v>
       </c>
       <c r="M3" t="n">
-        <v>185095.3097139484</v>
+        <v>185095.3097139483</v>
       </c>
       <c r="N3" t="n">
-        <v>56117.93622877512</v>
+        <v>56117.9362287752</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
-        <v>8221.035297234863</v>
+        <v>8221.035297234881</v>
       </c>
       <c r="F4" t="n">
-        <v>22517.82182439817</v>
+        <v>22517.82182439816</v>
       </c>
       <c r="G4" t="n">
-        <v>70715.86778327738</v>
+        <v>70715.86778327732</v>
       </c>
       <c r="H4" t="n">
+        <v>70715.86778327732</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70715.86778327732</v>
+      </c>
+      <c r="J4" t="n">
+        <v>70715.86778327732</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70715.86778327728</v>
+      </c>
+      <c r="L4" t="n">
         <v>70715.86778327735</v>
       </c>
-      <c r="I4" t="n">
-        <v>70715.86778327735</v>
-      </c>
-      <c r="J4" t="n">
-        <v>70715.86778327735</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70715.8677832774</v>
-      </c>
-      <c r="L4" t="n">
-        <v>70715.86778327738</v>
-      </c>
       <c r="M4" t="n">
-        <v>70715.86778327737</v>
+        <v>70715.86778327732</v>
       </c>
       <c r="N4" t="n">
-        <v>70715.86778327737</v>
+        <v>70715.86778327734</v>
       </c>
       <c r="O4" t="n">
         <v>70715.86778327734</v>
@@ -26476,19 +26476,19 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>70449.84478294513</v>
+        <v>70449.84478294509</v>
       </c>
       <c r="F5" t="n">
-        <v>85006.07440486582</v>
+        <v>85006.07440486579</v>
       </c>
       <c r="G5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="H5" t="n">
-        <v>89033.00642757355</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="I5" t="n">
-        <v>89033.00642757355</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="J5" t="n">
         <v>89033.00642757356</v>
@@ -26497,19 +26497,19 @@
         <v>89033.00642757358</v>
       </c>
       <c r="L5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="M5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="N5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="O5" t="n">
         <v>89033.00642757356</v>
       </c>
       <c r="P5" t="n">
-        <v>89033.00642757359</v>
+        <v>89033.00642757356</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298413.0218106808</v>
+        <v>-298413.0218106809</v>
       </c>
       <c r="C6" t="n">
         <v>-285147.5542115978</v>
       </c>
       <c r="D6" t="n">
-        <v>-285147.5542115978</v>
+        <v>-285147.5542115979</v>
       </c>
       <c r="E6" t="n">
-        <v>-1027600.770471253</v>
+        <v>-1027993.426096507</v>
       </c>
       <c r="F6" t="n">
-        <v>-66918.31374381344</v>
+        <v>-67128.9066123261</v>
       </c>
       <c r="G6" t="n">
-        <v>-54386.82068089496</v>
+        <v>-54386.82068089503</v>
       </c>
       <c r="H6" t="n">
-        <v>-16066.56448460116</v>
+        <v>-16066.56448460143</v>
       </c>
       <c r="I6" t="n">
-        <v>-16066.56448460133</v>
+        <v>-16066.5644846014</v>
       </c>
       <c r="J6" t="n">
-        <v>-26423.44838840512</v>
+        <v>-26423.44838840517</v>
       </c>
       <c r="K6" t="n">
-        <v>-16066.56448460135</v>
+        <v>-16066.56448460137</v>
       </c>
       <c r="L6" t="n">
-        <v>-54386.82068089496</v>
+        <v>-54386.82068089515</v>
       </c>
       <c r="M6" t="n">
-        <v>-201161.8741985497</v>
+        <v>-201161.8741985496</v>
       </c>
       <c r="N6" t="n">
-        <v>-72184.50071337633</v>
+        <v>-72184.50071337653</v>
       </c>
       <c r="O6" t="n">
-        <v>-16066.56448460127</v>
+        <v>-16066.56448460139</v>
       </c>
       <c r="P6" t="n">
-        <v>-16066.5644846014</v>
+        <v>-16066.56448460137</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K2" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="M2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O2" t="n">
         <v>47.90032024536707</v>
       </c>
       <c r="P2" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>1078.433402831844</v>
       </c>
       <c r="K3" t="n">
-        <v>1078.433402831844</v>
+        <v>1078.433402831845</v>
       </c>
       <c r="L3" t="n">
         <v>1078.433402831844</v>
@@ -26796,13 +26796,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>782.330019535589</v>
+        <v>782.3300195355886</v>
       </c>
       <c r="F4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="G4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
       <c r="H4" t="n">
         <v>1011.451089196243</v>
@@ -26814,10 +26814,10 @@
         <v>1011.451089196243</v>
       </c>
       <c r="K4" t="n">
+        <v>1011.451089196244</v>
+      </c>
+      <c r="L4" t="n">
         <v>1011.451089196243</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1011.451089196244</v>
       </c>
       <c r="M4" t="n">
         <v>1011.451089196243</v>
@@ -26829,7 +26829,7 @@
         <v>1011.451089196243</v>
       </c>
       <c r="P4" t="n">
-        <v>1011.451089196244</v>
+        <v>1011.451089196243</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1049.733008953271</v>
       </c>
       <c r="F3" t="n">
-        <v>28.7003938785731</v>
+        <v>28.70039387857355</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>742.7461425737484</v>
+        <v>742.746142573748</v>
       </c>
       <c r="F4" t="n">
-        <v>229.1210696606545</v>
+        <v>229.1210696606547</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.5838769618407</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.7461425737483</v>
+        <v>742.7461425737478</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606545</v>
+        <v>229.1210696606548</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.7461425737484</v>
+        <v>742.746142573748</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606545</v>
+        <v>229.1210696606547</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.6843971463602</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>197.7891939992632</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,31 +27421,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,13 +27515,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>197.9351083214361</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.59154648957888</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27588,13 +27588,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>242.1600909625637</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>186.1257784271966</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="5">
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.1442181519412</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>190.9131482575518</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>166.0458411930903</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>166.1891082416369</v>
       </c>
       <c r="Y6" t="n">
-        <v>171.5638082755731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>124.0449762560968</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,31 +27813,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>276.3414769952266</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>380.0378453068827</v>
       </c>
       <c r="C8" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>119.5385339773237</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,19 +27983,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U9" t="n">
         <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
-        <v>171.6540977017462</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.0372797510117</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
         <v>188.3617124664409</v>
       </c>
       <c r="U10" t="n">
-        <v>261.7485325943754</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I17" t="n">
         <v>43.33496992146243</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I20" t="n">
         <v>43.33496992146243</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I23" t="n">
         <v>43.33496992146243</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I26" t="n">
         <v>43.33496992146243</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I29" t="n">
-        <v>43.33496992146243</v>
+        <v>43.3349699214624</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.90032024536709</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="C32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="D32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="E32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="F32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="G32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="H32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="I32" t="n">
         <v>43.33496992146243</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="T32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="U32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="V32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="W32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="X32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="C34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="D34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="E34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="F34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="G34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="H34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="I34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="J34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="K34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="L34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="M34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="N34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="O34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="P34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="R34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="S34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="T34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="U34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="V34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="W34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="X34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536706</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I35" t="n">
         <v>43.33496992146243</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I38" t="n">
         <v>43.33496992146243</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M40" t="n">
-        <v>47.90032024536737</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.90032024536708</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="41">
@@ -30648,7 +30648,7 @@
         <v>47.90032024536707</v>
       </c>
       <c r="M43" t="n">
-        <v>47.90032024536748</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N43" t="n">
         <v>47.90032024536707</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I44" t="n">
         <v>43.33496992146243</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.90032024536705</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.220032196797067</v>
+        <v>4.220032196797066</v>
       </c>
       <c r="H11" t="n">
-        <v>43.21840473544798</v>
+        <v>43.21840473544796</v>
       </c>
       <c r="I11" t="n">
-        <v>162.6927912670191</v>
+        <v>162.692791267019</v>
       </c>
       <c r="J11" t="n">
-        <v>358.1699576629055</v>
+        <v>358.1699576629053</v>
       </c>
       <c r="K11" t="n">
-        <v>536.8039205533254</v>
+        <v>536.8039205533252</v>
       </c>
       <c r="L11" t="n">
-        <v>665.9527308960538</v>
+        <v>665.9527308960535</v>
       </c>
       <c r="M11" t="n">
-        <v>741.0007284758436</v>
+        <v>741.0007284758433</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9908949549933</v>
+        <v>752.990894954993</v>
       </c>
       <c r="O11" t="n">
-        <v>711.0279497980924</v>
+        <v>711.0279497980922</v>
       </c>
       <c r="P11" t="n">
-        <v>606.8459049396648</v>
+        <v>606.8459049396645</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.7160018918697</v>
+        <v>455.7160018918694</v>
       </c>
       <c r="R11" t="n">
-        <v>265.086597482054</v>
+        <v>265.0865974820539</v>
       </c>
       <c r="S11" t="n">
-        <v>96.16398368451327</v>
+        <v>96.16398368451323</v>
       </c>
       <c r="T11" t="n">
-        <v>18.47319094147917</v>
+        <v>18.47319094147916</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3376025757437653</v>
+        <v>0.3376025757437652</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.257916283408923</v>
+        <v>2.257916283408922</v>
       </c>
       <c r="H12" t="n">
-        <v>21.80671778976513</v>
+        <v>21.80671778976512</v>
       </c>
       <c r="I12" t="n">
-        <v>77.73966151210549</v>
+        <v>77.73966151210546</v>
       </c>
       <c r="J12" t="n">
-        <v>213.3235730741738</v>
+        <v>213.3235730741737</v>
       </c>
       <c r="K12" t="n">
-        <v>364.6039640625717</v>
+        <v>364.6039640625715</v>
       </c>
       <c r="L12" t="n">
-        <v>490.2550246059595</v>
+        <v>490.2550246059592</v>
       </c>
       <c r="M12" t="n">
-        <v>572.1044898795328</v>
+        <v>572.1044898795326</v>
       </c>
       <c r="N12" t="n">
-        <v>587.2463933766041</v>
+        <v>587.2463933766039</v>
       </c>
       <c r="O12" t="n">
-        <v>537.2157220442275</v>
+        <v>537.2157220442272</v>
       </c>
       <c r="P12" t="n">
-        <v>431.1629787151654</v>
+        <v>431.1629787151652</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.2210329488303</v>
+        <v>288.2210329488302</v>
       </c>
       <c r="R12" t="n">
-        <v>140.1888724032313</v>
+        <v>140.1888724032312</v>
       </c>
       <c r="S12" t="n">
-        <v>41.93980465016134</v>
+        <v>41.93980465016131</v>
       </c>
       <c r="T12" t="n">
-        <v>9.100987124792981</v>
+        <v>9.100987124792978</v>
       </c>
       <c r="U12" t="n">
         <v>0.1485471239084818</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.892961163686227</v>
+        <v>1.892961163686226</v>
       </c>
       <c r="H13" t="n">
-        <v>16.83014561895574</v>
+        <v>16.83014561895573</v>
       </c>
       <c r="I13" t="n">
-        <v>56.92650481340036</v>
+        <v>56.92650481340034</v>
       </c>
       <c r="J13" t="n">
         <v>133.8323542726162</v>
       </c>
       <c r="K13" t="n">
-        <v>219.9276697446361</v>
+        <v>219.927669744636</v>
       </c>
       <c r="L13" t="n">
-        <v>281.4316988265869</v>
+        <v>281.4316988265868</v>
       </c>
       <c r="M13" t="n">
-        <v>296.7302667767419</v>
+        <v>296.7302667767418</v>
       </c>
       <c r="N13" t="n">
-        <v>289.674684257548</v>
+        <v>289.6746842575479</v>
       </c>
       <c r="O13" t="n">
-        <v>267.5614561181224</v>
+        <v>267.5614561181223</v>
       </c>
       <c r="P13" t="n">
-        <v>228.9450483789232</v>
+        <v>228.9450483789231</v>
       </c>
       <c r="Q13" t="n">
-        <v>158.509684351944</v>
+        <v>158.5096843519439</v>
       </c>
       <c r="R13" t="n">
-        <v>85.11441741447341</v>
+        <v>85.11441741447338</v>
       </c>
       <c r="S13" t="n">
-        <v>32.98915046169542</v>
+        <v>32.9891504616954</v>
       </c>
       <c r="T13" t="n">
-        <v>8.088106790295694</v>
+        <v>8.08810679029569</v>
       </c>
       <c r="U13" t="n">
         <v>0.1032524271101579</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.335410664650627</v>
+        <v>4.335410664650628</v>
       </c>
       <c r="H29" t="n">
-        <v>44.40002446935325</v>
+        <v>44.40002446935326</v>
       </c>
       <c r="I29" t="n">
         <v>167.1409196489435</v>
       </c>
       <c r="J29" t="n">
-        <v>367.9625608988915</v>
+        <v>367.9625608988916</v>
       </c>
       <c r="K29" t="n">
-        <v>551.4804943335527</v>
+        <v>551.4804943335529</v>
       </c>
       <c r="L29" t="n">
-        <v>684.1603184618544</v>
+        <v>684.1603184618547</v>
       </c>
       <c r="M29" t="n">
-        <v>761.2601778693351</v>
+        <v>761.2601778693353</v>
       </c>
       <c r="N29" t="n">
-        <v>773.5781634202738</v>
+        <v>773.5781634202739</v>
       </c>
       <c r="O29" t="n">
-        <v>730.467923623654</v>
+        <v>730.4679236236542</v>
       </c>
       <c r="P29" t="n">
-        <v>623.4374728400916</v>
+        <v>623.4374728400917</v>
       </c>
       <c r="Q29" t="n">
-        <v>468.1755784122908</v>
+        <v>468.1755784122909</v>
       </c>
       <c r="R29" t="n">
-        <v>272.3342401633602</v>
+        <v>272.3342401633603</v>
       </c>
       <c r="S29" t="n">
-        <v>98.79317052072628</v>
+        <v>98.79317052072629</v>
       </c>
       <c r="T29" t="n">
-        <v>18.97826018450813</v>
+        <v>18.97826018450814</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3468328531720501</v>
+        <v>0.3468328531720502</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.319649206091137</v>
+        <v>2.319649206091138</v>
       </c>
       <c r="H30" t="n">
-        <v>22.40292785882756</v>
+        <v>22.40292785882757</v>
       </c>
       <c r="I30" t="n">
-        <v>79.86511520971679</v>
+        <v>79.86511520971681</v>
       </c>
       <c r="J30" t="n">
-        <v>219.1559804754789</v>
+        <v>219.155980475479</v>
       </c>
       <c r="K30" t="n">
-        <v>374.5724772835851</v>
+        <v>374.5724772835852</v>
       </c>
       <c r="L30" t="n">
         <v>503.6589208225516</v>
       </c>
       <c r="M30" t="n">
-        <v>587.7462045433551</v>
+        <v>587.7462045433552</v>
       </c>
       <c r="N30" t="n">
-        <v>603.3020976842033</v>
+        <v>603.3020976842034</v>
       </c>
       <c r="O30" t="n">
-        <v>551.9035547492365</v>
+        <v>551.9035547492366</v>
       </c>
       <c r="P30" t="n">
-        <v>442.9512593631401</v>
+        <v>442.9512593631402</v>
       </c>
       <c r="Q30" t="n">
-        <v>296.1011863775283</v>
+        <v>296.1011863775284</v>
       </c>
       <c r="R30" t="n">
         <v>144.0217287781849</v>
       </c>
       <c r="S30" t="n">
-        <v>43.08646661314017</v>
+        <v>43.08646661314018</v>
       </c>
       <c r="T30" t="n">
-        <v>9.349814124551553</v>
+        <v>9.349814124551555</v>
       </c>
       <c r="U30" t="n">
         <v>0.1526085004007328</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.944715972319719</v>
+        <v>1.94471597231972</v>
       </c>
       <c r="H31" t="n">
         <v>17.29029291753352</v>
       </c>
       <c r="I31" t="n">
-        <v>58.48291305848758</v>
+        <v>58.48291305848759</v>
       </c>
       <c r="J31" t="n">
-        <v>137.4914192430041</v>
+        <v>137.4914192430042</v>
       </c>
       <c r="K31" t="n">
-        <v>225.9406375113273</v>
+        <v>225.9406375113274</v>
       </c>
       <c r="L31" t="n">
-        <v>289.1262273756063</v>
+        <v>289.1262273756064</v>
       </c>
       <c r="M31" t="n">
         <v>304.843068279172</v>
       </c>
       <c r="N31" t="n">
-        <v>297.5945814732532</v>
+        <v>297.5945814732533</v>
       </c>
       <c r="O31" t="n">
-        <v>274.8767630693364</v>
+        <v>274.8767630693365</v>
       </c>
       <c r="P31" t="n">
-        <v>235.2045572340139</v>
+        <v>235.204557234014</v>
       </c>
       <c r="Q31" t="n">
         <v>162.8434438276085</v>
       </c>
       <c r="R31" t="n">
-        <v>87.44150180993935</v>
+        <v>87.44150180993937</v>
       </c>
       <c r="S31" t="n">
-        <v>33.8910956266991</v>
+        <v>33.89109562669911</v>
       </c>
       <c r="T31" t="n">
-        <v>8.309240972638799</v>
+        <v>8.309240972638801</v>
       </c>
       <c r="U31" t="n">
         <v>0.1060754166719848</v>
@@ -34702,16 +34702,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="Q3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L5" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>39.58387696184059</v>
@@ -35030,7 +35030,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
         <v>39.58387696184059</v>
@@ -35182,10 +35182,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>39.58387696184059</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.1240531362192</v>
+        <v>177.124053136219</v>
       </c>
       <c r="K11" t="n">
-        <v>316.7140695083448</v>
+        <v>316.7140695083446</v>
       </c>
       <c r="L11" t="n">
-        <v>430.1863159260666</v>
+        <v>430.1863159260662</v>
       </c>
       <c r="M11" t="n">
-        <v>510.6544952485709</v>
+        <v>510.6544952485706</v>
       </c>
       <c r="N11" t="n">
-        <v>523.5778313584024</v>
+        <v>523.5778313584021</v>
       </c>
       <c r="O11" t="n">
-        <v>480.9297383764057</v>
+        <v>480.9297383764055</v>
       </c>
       <c r="P11" t="n">
-        <v>375.6129091843953</v>
+        <v>375.6129091843949</v>
       </c>
       <c r="Q11" t="n">
-        <v>233.4103120174202</v>
+        <v>233.41031201742</v>
       </c>
       <c r="R11" t="n">
-        <v>49.50105966792188</v>
+        <v>49.50105966792177</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.4859464075071</v>
+        <v>86.48594640750702</v>
       </c>
       <c r="K12" t="n">
-        <v>226.7625250882127</v>
+        <v>226.7625250882125</v>
       </c>
       <c r="L12" t="n">
-        <v>351.7006448260853</v>
+        <v>351.7006448260851</v>
       </c>
       <c r="M12" t="n">
-        <v>429.9704559575145</v>
+        <v>429.9704559575143</v>
       </c>
       <c r="N12" t="n">
-        <v>455.9046812932709</v>
+        <v>584.2898631358564</v>
       </c>
       <c r="O12" t="n">
-        <v>394.6194775997831</v>
+        <v>394.6194775997827</v>
       </c>
       <c r="P12" t="n">
-        <v>297.1885713008352</v>
+        <v>297.188571300835</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.5934024548046</v>
+        <v>148.2392588628086</v>
       </c>
       <c r="R12" t="n">
-        <v>40.03103825058814</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.47317415594344</v>
+        <v>40.47317415594338</v>
       </c>
       <c r="K13" t="n">
-        <v>197.6581779187533</v>
+        <v>197.6581779187532</v>
       </c>
       <c r="L13" t="n">
-        <v>309.0217240869031</v>
+        <v>309.021724086903</v>
       </c>
       <c r="M13" t="n">
-        <v>336.3141437385825</v>
+        <v>336.3141437385823</v>
       </c>
       <c r="N13" t="n">
-        <v>333.8068566367766</v>
+        <v>333.8068566367765</v>
       </c>
       <c r="O13" t="n">
-        <v>292.1465840321621</v>
+        <v>292.146584032162</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2236076438167</v>
+        <v>226.2236076438166</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.34764110024959</v>
+        <v>72.3476411002495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>308.9371539476884</v>
+        <v>324.9050694799797</v>
       </c>
       <c r="K14" t="n">
-        <v>655.5360558597368</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L14" t="n">
-        <v>448.3939034918672</v>
+        <v>866.0551180423176</v>
       </c>
       <c r="M14" t="n">
         <v>530.9139446420623</v>
@@ -35662,10 +35662,10 @@
         <v>500.3697122019672</v>
       </c>
       <c r="P14" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q14" t="n">
-        <v>245.8698885378413</v>
+        <v>458.184879197746</v>
       </c>
       <c r="R14" t="n">
         <v>56.7487023492281</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>121.1771552626418</v>
+        <v>92.31835380881222</v>
       </c>
       <c r="K15" t="n">
         <v>236.7310383092261</v>
@@ -35738,7 +35738,7 @@
         <v>471.96038560087</v>
       </c>
       <c r="O15" t="n">
-        <v>409.3073103047921</v>
+        <v>438.1661117586219</v>
       </c>
       <c r="P15" t="n">
         <v>308.9768519488098</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>308.9371539476884</v>
+        <v>356.013271544279</v>
       </c>
       <c r="K17" t="n">
-        <v>655.5360558597368</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L17" t="n">
         <v>448.3939034918672</v>
       </c>
       <c r="M17" t="n">
-        <v>530.9139446420623</v>
+        <v>980.4274781348948</v>
       </c>
       <c r="N17" t="n">
         <v>544.1650998236828</v>
       </c>
       <c r="O17" t="n">
-        <v>500.3697122019672</v>
+        <v>649.7241818551904</v>
       </c>
       <c r="P17" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q17" t="n">
         <v>245.8698885378413</v>
@@ -35972,7 +35972,7 @@
         <v>445.6121706213368</v>
       </c>
       <c r="N18" t="n">
-        <v>471.96038560087</v>
+        <v>500.8191870546997</v>
       </c>
       <c r="O18" t="n">
         <v>409.3073103047921</v>
@@ -35984,7 +35984,7 @@
         <v>156.1194122915068</v>
       </c>
       <c r="R18" t="n">
-        <v>28.85880145382966</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169841</v>
       </c>
       <c r="K19" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L19" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M19" t="n">
         <v>392.3272654863796</v>
@@ -36054,7 +36054,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O19" t="n">
-        <v>347.3622112287432</v>
+        <v>347.3622112287431</v>
       </c>
       <c r="P19" t="n">
         <v>280.3834367442745</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>324.9050694799788</v>
+        <v>356.013271544279</v>
       </c>
       <c r="K20" t="n">
         <v>331.3906432885721</v>
@@ -36130,7 +36130,7 @@
         <v>530.9139446420623</v>
       </c>
       <c r="N20" t="n">
-        <v>544.1650998236828</v>
+        <v>725.371888419288</v>
       </c>
       <c r="O20" t="n">
         <v>500.3697122019672</v>
@@ -36139,7 +36139,7 @@
         <v>392.204477084822</v>
       </c>
       <c r="Q20" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R20" t="n">
         <v>56.7487023492281</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>121.1771552626419</v>
+        <v>92.31835380881222</v>
       </c>
       <c r="K21" t="n">
         <v>236.7310383092261</v>
@@ -36218,7 +36218,7 @@
         <v>308.9768519488098</v>
       </c>
       <c r="Q21" t="n">
-        <v>156.1194122915068</v>
+        <v>184.9782137453365</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169841</v>
       </c>
       <c r="K22" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L22" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M22" t="n">
         <v>392.3272654863796</v>
@@ -36291,7 +36291,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O22" t="n">
-        <v>347.3622112287432</v>
+        <v>347.3622112287431</v>
       </c>
       <c r="P22" t="n">
         <v>280.3834367442745</v>
@@ -36358,7 +36358,7 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K23" t="n">
-        <v>655.5360558597368</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L23" t="n">
         <v>448.3939034918672</v>
@@ -36367,19 +36367,19 @@
         <v>530.9139446420623</v>
       </c>
       <c r="N23" t="n">
-        <v>544.1650998236828</v>
+        <v>924.6145900973477</v>
       </c>
       <c r="O23" t="n">
-        <v>881.1698934647126</v>
+        <v>500.3697122019672</v>
       </c>
       <c r="P23" t="n">
-        <v>455.22350156904</v>
+        <v>714.0031852563047</v>
       </c>
       <c r="Q23" t="n">
         <v>245.8698885378413</v>
       </c>
       <c r="R23" t="n">
-        <v>56.7487023492281</v>
+        <v>122.4651222222105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>121.1771552626419</v>
+        <v>92.31835380881222</v>
       </c>
       <c r="K24" t="n">
         <v>236.7310383092261</v>
@@ -36446,7 +36446,7 @@
         <v>445.6121706213368</v>
       </c>
       <c r="N24" t="n">
-        <v>471.96038560087</v>
+        <v>500.8191870546997</v>
       </c>
       <c r="O24" t="n">
         <v>409.3073103047921</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169841</v>
       </c>
       <c r="K25" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L25" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M25" t="n">
         <v>392.3272654863796</v>
@@ -36528,7 +36528,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O25" t="n">
-        <v>347.3622112287432</v>
+        <v>347.3622112287431</v>
       </c>
       <c r="P25" t="n">
         <v>280.3834367442745</v>
@@ -36604,7 +36604,7 @@
         <v>530.9139446420623</v>
       </c>
       <c r="N26" t="n">
-        <v>544.1650998236828</v>
+        <v>609.5308287075843</v>
       </c>
       <c r="O26" t="n">
         <v>881.1698934647126</v>
@@ -36613,7 +36613,7 @@
         <v>714.0031852563047</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.2356174217416</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R26" t="n">
         <v>56.7487023492281</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>121.1771552626418</v>
+        <v>92.31835380881222</v>
       </c>
       <c r="K27" t="n">
         <v>236.7310383092261</v>
@@ -36695,7 +36695,7 @@
         <v>156.1194122915068</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>28.85880145382966</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169841</v>
       </c>
       <c r="K28" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L28" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M28" t="n">
         <v>392.3272654863796</v>
@@ -36765,7 +36765,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O28" t="n">
-        <v>347.3622112287432</v>
+        <v>347.3622112287431</v>
       </c>
       <c r="P28" t="n">
         <v>280.3834367442745</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.9166563722052</v>
+        <v>186.9166563722054</v>
       </c>
       <c r="K29" t="n">
-        <v>331.3906432885721</v>
+        <v>655.5360558597371</v>
       </c>
       <c r="L29" t="n">
-        <v>448.3939034918672</v>
+        <v>448.3939034918674</v>
       </c>
       <c r="M29" t="n">
-        <v>530.9139446420623</v>
+        <v>974.7331503890263</v>
       </c>
       <c r="N29" t="n">
-        <v>931.3295368790675</v>
+        <v>544.165099823683</v>
       </c>
       <c r="O29" t="n">
-        <v>881.1698934647126</v>
+        <v>500.3697122019674</v>
       </c>
       <c r="P29" t="n">
-        <v>392.204477084822</v>
+        <v>392.2044770848221</v>
       </c>
       <c r="Q29" t="n">
-        <v>245.8698885378413</v>
+        <v>245.8698885378414</v>
       </c>
       <c r="R29" t="n">
-        <v>56.7487023492281</v>
+        <v>56.74870234922815</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>121.1771552626418</v>
+        <v>92.31835380881228</v>
       </c>
       <c r="K30" t="n">
-        <v>236.7310383092261</v>
+        <v>236.7310383092262</v>
       </c>
       <c r="L30" t="n">
-        <v>365.1045410426774</v>
+        <v>365.1045410426775</v>
       </c>
       <c r="M30" t="n">
-        <v>445.6121706213368</v>
+        <v>445.6121706213369</v>
       </c>
       <c r="N30" t="n">
-        <v>471.96038560087</v>
+        <v>471.9603856008702</v>
       </c>
       <c r="O30" t="n">
-        <v>409.3073103047921</v>
+        <v>438.1661117586209</v>
       </c>
       <c r="P30" t="n">
-        <v>308.9768519488098</v>
+        <v>308.97685194881</v>
       </c>
       <c r="Q30" t="n">
-        <v>156.1194122915068</v>
+        <v>156.1194122915069</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169843</v>
       </c>
       <c r="K31" t="n">
         <v>251.5714659308116</v>
       </c>
       <c r="L31" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M31" t="n">
         <v>392.3272654863796</v>
@@ -37075,22 +37075,22 @@
         <v>448.3939034918672</v>
       </c>
       <c r="M32" t="n">
-        <v>530.9139446420623</v>
+        <v>980.4274781348948</v>
       </c>
       <c r="N32" t="n">
         <v>544.1650998236828</v>
       </c>
       <c r="O32" t="n">
-        <v>880.8192024756321</v>
+        <v>818.8207970272646</v>
       </c>
       <c r="P32" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q32" t="n">
         <v>245.8698885378413</v>
       </c>
       <c r="R32" t="n">
-        <v>122.4651222222105</v>
+        <v>56.7487023492281</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>121.1771552626418</v>
+        <v>92.31835380881222</v>
       </c>
       <c r="K33" t="n">
         <v>236.7310383092261</v>
@@ -37163,7 +37163,7 @@
         <v>409.3073103047921</v>
       </c>
       <c r="P33" t="n">
-        <v>308.9768519488098</v>
+        <v>337.8356534026394</v>
       </c>
       <c r="Q33" t="n">
         <v>156.1194122915068</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169843</v>
       </c>
       <c r="K34" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L34" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M34" t="n">
         <v>392.3272654863796</v>
@@ -37239,7 +37239,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O34" t="n">
-        <v>347.3622112287432</v>
+        <v>347.3622112287431</v>
       </c>
       <c r="P34" t="n">
         <v>280.3834367442745</v>
@@ -37306,7 +37306,7 @@
         <v>186.9166563722052</v>
       </c>
       <c r="K35" t="n">
-        <v>565.2415627753147</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L35" t="n">
         <v>448.3939034918672</v>
@@ -37315,16 +37315,16 @@
         <v>530.9139446420623</v>
       </c>
       <c r="N35" t="n">
-        <v>544.1650998236828</v>
+        <v>981.512024235667</v>
       </c>
       <c r="O35" t="n">
-        <v>500.3697122019672</v>
+        <v>830.9874061081122</v>
       </c>
       <c r="P35" t="n">
-        <v>714.0031852563047</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q35" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R35" t="n">
         <v>56.7487023492281</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>121.1771552626418</v>
+        <v>92.31835380881222</v>
       </c>
       <c r="K36" t="n">
         <v>236.7310383092261</v>
       </c>
       <c r="L36" t="n">
-        <v>365.1045410426774</v>
+        <v>393.963342496507</v>
       </c>
       <c r="M36" t="n">
         <v>445.6121706213368</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169844</v>
       </c>
       <c r="K37" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L37" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812895</v>
       </c>
       <c r="M37" t="n">
         <v>392.3272654863796</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>186.9166563722052</v>
+        <v>356.013271544279</v>
       </c>
       <c r="K38" t="n">
-        <v>565.2415627753147</v>
+        <v>331.3906432885721</v>
       </c>
       <c r="L38" t="n">
         <v>448.3939034918672</v>
@@ -37552,19 +37552,19 @@
         <v>530.9139446420623</v>
       </c>
       <c r="N38" t="n">
-        <v>544.1650998236828</v>
+        <v>981.512024235667</v>
       </c>
       <c r="O38" t="n">
         <v>500.3697122019672</v>
       </c>
       <c r="P38" t="n">
-        <v>714.0031852563047</v>
+        <v>488.0091359459116</v>
       </c>
       <c r="Q38" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R38" t="n">
-        <v>56.7487023492281</v>
+        <v>122.4651222222105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169844</v>
       </c>
       <c r="K40" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308115</v>
       </c>
       <c r="L40" t="n">
         <v>364.6165728812896</v>
       </c>
       <c r="M40" t="n">
-        <v>392.3272654863799</v>
+        <v>392.3272654863796</v>
       </c>
       <c r="N40" t="n">
         <v>389.6270740978489</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>356.013271544279</v>
+        <v>186.9166563722052</v>
       </c>
       <c r="K41" t="n">
         <v>331.3906432885721</v>
@@ -37786,22 +37786,22 @@
         <v>448.3939034918672</v>
       </c>
       <c r="M41" t="n">
-        <v>530.9139446420623</v>
+        <v>980.4274781348948</v>
       </c>
       <c r="N41" t="n">
         <v>544.1650998236828</v>
       </c>
       <c r="O41" t="n">
-        <v>500.3697122019672</v>
+        <v>818.8207970272637</v>
       </c>
       <c r="P41" t="n">
-        <v>713.0410696979905</v>
+        <v>392.204477084822</v>
       </c>
       <c r="Q41" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R41" t="n">
-        <v>122.4651222222105</v>
+        <v>56.7487023492281</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>471.96038560087</v>
       </c>
       <c r="O42" t="n">
-        <v>409.3073103047921</v>
+        <v>438.1661117586219</v>
       </c>
       <c r="P42" t="n">
         <v>308.9768519488098</v>
       </c>
       <c r="Q42" t="n">
-        <v>184.9782137453365</v>
+        <v>156.1194122915068</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>364.6165728812895</v>
       </c>
       <c r="M43" t="n">
-        <v>392.32726548638</v>
+        <v>392.3272654863796</v>
       </c>
       <c r="N43" t="n">
         <v>389.6270740978489</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>356.013271544279</v>
+        <v>186.9166563722052</v>
       </c>
       <c r="K44" t="n">
         <v>331.3906432885721</v>
@@ -38023,7 +38023,7 @@
         <v>448.3939034918672</v>
       </c>
       <c r="M44" t="n">
-        <v>530.9139446420623</v>
+        <v>977.0798547887098</v>
       </c>
       <c r="N44" t="n">
         <v>544.1650998236828</v>
@@ -38032,13 +38032,13 @@
         <v>500.3697122019672</v>
       </c>
       <c r="P44" t="n">
-        <v>713.0410696979918</v>
+        <v>714.0031852563047</v>
       </c>
       <c r="Q44" t="n">
-        <v>458.184879197746</v>
+        <v>245.8698885378413</v>
       </c>
       <c r="R44" t="n">
-        <v>122.4651222222105</v>
+        <v>56.7487023492281</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>236.7310383092261</v>
       </c>
       <c r="L45" t="n">
-        <v>365.1045410426774</v>
+        <v>393.963342496507</v>
       </c>
       <c r="M45" t="n">
         <v>445.6121706213368</v>
@@ -38117,7 +38117,7 @@
         <v>156.1194122915068</v>
       </c>
       <c r="R45" t="n">
-        <v>28.85880145382966</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169844</v>
       </c>
       <c r="K46" t="n">
         <v>251.5714659308115</v>
       </c>
       <c r="L46" t="n">
-        <v>364.6165728812895</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M46" t="n">
         <v>392.3272654863796</v>
@@ -38187,7 +38187,7 @@
         <v>389.6270740978489</v>
       </c>
       <c r="O46" t="n">
-        <v>347.3622112287431</v>
+        <v>347.3622112287432</v>
       </c>
       <c r="P46" t="n">
         <v>280.3834367442745</v>
